--- a/Excel Workbooks/10Pi2.xlsx
+++ b/Excel Workbooks/10Pi2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\StatsProject\Excel Workbooks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526A9C30-6667-494B-9FB6-B76469735362}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +84,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +170,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +222,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,14 +415,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,9 +443,9 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.5473141719917926</v>
+        <v>0.54731417199179255</v>
       </c>
       <c r="B2">
         <v>0.9656436465998518</v>
@@ -397,12 +454,12 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>0.05840734641020706</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>5.8407346410207062E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.5365390176657577</v>
+        <v>0.53653901766575773</v>
       </c>
       <c r="B3">
         <v>0.3404869872824875</v>
@@ -411,15 +468,15 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>1.859163578813024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1.8591635788130241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.5308280579589777</v>
+        <v>0.53082805795897769</v>
       </c>
       <c r="B4">
-        <v>0.3984986648797961</v>
+        <v>0.39849866487979613</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -428,60 +485,60 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.3583667161973548</v>
+        <v>0.35836671619735477</v>
       </c>
       <c r="B5">
-        <v>0.2362699247448196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.23626992474481959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.5024379171808846</v>
       </c>
       <c r="B6">
-        <v>0.928053547642421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.92805354764242098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.05088343117345939</v>
+        <v>5.0883431173459392E-2</v>
       </c>
       <c r="B7">
-        <v>0.1263650118167776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.12636501181677759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.9700412832259323</v>
       </c>
       <c r="B8">
-        <v>0.05818535113579448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>5.8185351135794483E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.7250149015529683</v>
+        <v>0.72501490155296833</v>
       </c>
       <c r="B9">
-        <v>0.2073614858959978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.20736148589599779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.6451211931821392</v>
+        <v>0.64512119318213923</v>
       </c>
       <c r="B10">
-        <v>0.4924449639783056</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.49244496397830562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.2380462293582785</v>
+        <v>0.23804622935827849</v>
       </c>
       <c r="B11">
-        <v>0.2667985744524302</v>
+        <v>0.26679857445243021</v>
       </c>
     </row>
   </sheetData>
